--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516FB45-9C64-4880-9076-249C7320FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC4F6D-4185-4E9C-93F9-464F7451DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -184,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TabType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +349,18 @@
   </si>
   <si>
     <t>100만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2454,7 +2458,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B63" si="3">B57*100</f>
+        <f t="shared" ref="B58:B66" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2590,6 +2594,54 @@
         <v>9017</v>
       </c>
       <c r="G63" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999969E+127</v>
+      </c>
+      <c r="C64" s="20">
+        <v>7</v>
+      </c>
+      <c r="D64" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E64" s="21">
+        <v>2</v>
+      </c>
+      <c r="F64" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G64" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999969E+129</v>
+      </c>
+      <c r="C65" s="20">
+        <v>7</v>
+      </c>
+      <c r="D65" s="18">
+        <v>9028</v>
+      </c>
+      <c r="E65" s="21">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18">
+        <v>9028</v>
+      </c>
+      <c r="G65" s="21">
         <v>6</v>
       </c>
     </row>
@@ -2602,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2637,7 +2689,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="G3" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -2656,19 +2708,19 @@
         <v>0000</v>
       </c>
       <c r="G4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2679,15 +2731,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D34" si="0">POWER(10,C5)</f>
+        <f t="shared" ref="D5:D35" si="0">POWER(10,C5)</f>
         <v>100000000</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f t="shared" ref="E5:E34" si="1">RIGHT(D5,C5)</f>
+        <f t="shared" ref="E5:E35" si="1">RIGHT(D5,C5)</f>
         <v>00000000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="39">
         <v>30</v>
@@ -2724,7 +2776,7 @@
         <v>000000000000</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="39">
         <v>5</v>
@@ -2742,7 +2794,7 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2761,7 +2813,7 @@
         <v>0000000000000000</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="39">
         <v>14</v>
@@ -2798,7 +2850,7 @@
         <v>1E+20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="39">
         <v>20</v>
@@ -2816,7 +2868,7 @@
         <v>5000000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2837,7 +2889,7 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="39">
         <v>73</v>
@@ -2855,7 +2907,7 @@
         <v>480000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2876,7 +2928,7 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="39">
         <v>2</v>
@@ -2912,7 +2964,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="39">
         <v>46</v>
@@ -2930,7 +2982,7 @@
         <v>1000000</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2951,7 +3003,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="39">
         <v>88</v>
@@ -2969,7 +3021,7 @@
         <v>480000</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2990,7 +3042,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="39">
         <v>9002</v>
@@ -3029,7 +3081,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="39">
         <v>9009</v>
@@ -3066,7 +3118,7 @@
         <v>1E+48</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="39">
         <v>9023</v>
@@ -3103,7 +3155,7 @@
         <v>1E+52</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="39">
         <v>9017</v>
@@ -3140,22 +3192,22 @@
         <v>1E+56</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="39">
         <v>9027</v>
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3177,22 +3229,22 @@
         <v>1E+60</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="39">
         <v>9028</v>
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>
@@ -3271,7 +3323,7 @@
         <v>1E+76</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
@@ -3293,11 +3345,11 @@
         <v>1E+80</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3317,11 +3369,11 @@
         <v>1E+84</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,11 +3392,11 @@
         <v>1E+88</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3363,11 +3415,11 @@
         <v>1E+92</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3386,11 +3438,11 @@
         <v>1E+96</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3409,11 +3461,11 @@
         <v>1E+100</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3432,11 +3484,11 @@
         <v>1E+104</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3455,11 +3507,11 @@
         <v>1E+108</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3496,7 +3548,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3">
         <v>120</v>
@@ -3513,7 +3565,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3">
         <v>124</v>
@@ -3525,6 +3577,29 @@
       <c r="E34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>1E+124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3">
+        <v>128</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" ref="D35:D36" si="3">POWER(10,C35)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f t="shared" ref="E35:E36" si="4">RIGHT(D35,C35)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC4F6D-4185-4E9C-93F9-464F7451DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEAE98-D31D-4870-B30F-BCCC99DB2F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -361,6 +361,10 @@
   </si>
   <si>
     <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2462,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B66" si="3">B57*100</f>
+        <f t="shared" ref="B58:B67" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2642,6 +2646,54 @@
         <v>9028</v>
       </c>
       <c r="G65" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>64</v>
+      </c>
+      <c r="B66" s="15">
+        <f>B65*100</f>
+        <v>9.9999999999999968E+131</v>
+      </c>
+      <c r="C66" s="16">
+        <v>8</v>
+      </c>
+      <c r="D66" s="14">
+        <v>9023</v>
+      </c>
+      <c r="E66" s="17">
+        <v>2</v>
+      </c>
+      <c r="F66" s="14">
+        <v>9023</v>
+      </c>
+      <c r="G66" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>65</v>
+      </c>
+      <c r="B67" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999972E+133</v>
+      </c>
+      <c r="C67" s="16">
+        <v>8</v>
+      </c>
+      <c r="D67" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E67" s="17">
+        <v>2</v>
+      </c>
+      <c r="F67" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G67" s="17">
         <v>6</v>
       </c>
     </row>
@@ -2656,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
   <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2731,11 +2783,11 @@
         <v>8</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D35" si="0">POWER(10,C5)</f>
+        <f t="shared" ref="D5:D34" si="0">POWER(10,C5)</f>
         <v>100000000</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f t="shared" ref="E5:E35" si="1">RIGHT(D5,C5)</f>
+        <f t="shared" ref="E5:E34" si="1">RIGHT(D5,C5)</f>
         <v>00000000</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -3125,15 +3177,15 @@
       </c>
       <c r="I15" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H15,GCPass!E:E)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H15,GCPass!G:G)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K15" s="39">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L15" s="4">
         <v>20</v>
@@ -3162,15 +3214,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3587,7 +3639,7 @@
         <v>128</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" ref="D35:D36" si="3">POWER(10,C35)</f>
+        <f t="shared" ref="D35" si="3">POWER(10,C35)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="E35" s="11" t="str">
@@ -3596,10 +3648,19 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="11"/>
+      <c r="B36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3">
+        <v>132</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" ref="D36" si="5">POWER(10,C36)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
       <c r="E36" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="E36" si="6">RIGHT(D36,C36)</f>
+        <v>1E+132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEAE98-D31D-4870-B30F-BCCC99DB2F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD6B0A3-90A5-479F-8B7F-634DC936283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2466,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B67" si="3">B57*100</f>
+        <f t="shared" ref="B58:B69" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2695,6 +2699,54 @@
       </c>
       <c r="G67" s="17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>66</v>
+      </c>
+      <c r="B68" s="15">
+        <f>B67*100</f>
+        <v>9.9999999999999967E+135</v>
+      </c>
+      <c r="C68" s="16">
+        <v>8</v>
+      </c>
+      <c r="D68" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E68" s="17">
+        <v>2</v>
+      </c>
+      <c r="F68" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G68" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
+        <v>67</v>
+      </c>
+      <c r="B69" s="15">
+        <f t="shared" si="3"/>
+        <v>9.999999999999997E+137</v>
+      </c>
+      <c r="C69" s="16">
+        <v>8</v>
+      </c>
+      <c r="D69" s="14">
+        <v>9028</v>
+      </c>
+      <c r="E69" s="17">
+        <v>4</v>
+      </c>
+      <c r="F69" s="14">
+        <v>9028</v>
+      </c>
+      <c r="G69" s="17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2706,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3251,15 +3303,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3288,15 +3340,15 @@
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>
@@ -3643,7 +3695,7 @@
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="E35" s="11" t="str">
-        <f t="shared" ref="E35:E36" si="4">RIGHT(D35,C35)</f>
+        <f t="shared" ref="E35" si="4">RIGHT(D35,C35)</f>
         <v>1E+128</v>
       </c>
     </row>
@@ -3661,6 +3713,22 @@
       <c r="E36" s="11" t="str">
         <f t="shared" ref="E36" si="6">RIGHT(D36,C36)</f>
         <v>1E+132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="3">
+        <v>136</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" ref="D37" si="7">POWER(10,C37)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" ref="E37" si="8">RIGHT(D37,C37)</f>
+        <v>1E+136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD6B0A3-90A5-479F-8B7F-634DC936283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A0136-EAB0-47F4-A4FC-E0C2BEA9D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2466,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B69" si="3">B57*100</f>
+        <f t="shared" ref="B58:B71" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2747,6 +2751,54 @@
       </c>
       <c r="G69" s="17">
         <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>68</v>
+      </c>
+      <c r="B70" s="15">
+        <f>B69*100</f>
+        <v>9.9999999999999964E+139</v>
+      </c>
+      <c r="C70" s="16">
+        <v>8</v>
+      </c>
+      <c r="D70" s="14">
+        <v>9023</v>
+      </c>
+      <c r="E70" s="17">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14">
+        <v>9023</v>
+      </c>
+      <c r="G70" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>69</v>
+      </c>
+      <c r="B71" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999964E+141</v>
+      </c>
+      <c r="C71" s="16">
+        <v>8</v>
+      </c>
+      <c r="D71" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E71" s="17">
+        <v>2</v>
+      </c>
+      <c r="F71" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G71" s="17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2758,11 +2810,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3229,15 +3279,15 @@
       </c>
       <c r="I15" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H15,GCPass!E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H15,GCPass!G:G)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K15" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L15" s="4">
         <v>20</v>
@@ -3266,15 +3316,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3728,6 +3778,22 @@
       </c>
       <c r="E37" s="11" t="str">
         <f t="shared" ref="E37" si="8">RIGHT(D37,C37)</f>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="3">
+        <v>136</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" ref="D38" si="9">POWER(10,C38)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f t="shared" ref="E38" si="10">RIGHT(D38,C38)</f>
         <v>1E+136</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A0136-EAB0-47F4-A4FC-E0C2BEA9D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8195C29-D11D-431E-9E30-8A4F7344BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B71" si="3">B57*100</f>
+        <f t="shared" ref="B58:B73" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2799,6 +2799,54 @@
       </c>
       <c r="G71" s="17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>70</v>
+      </c>
+      <c r="B72" s="15">
+        <f>B71*100</f>
+        <v>9.9999999999999968E+143</v>
+      </c>
+      <c r="C72" s="16">
+        <v>8</v>
+      </c>
+      <c r="D72" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E72" s="17">
+        <v>2</v>
+      </c>
+      <c r="F72" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G72" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="14">
+        <v>71</v>
+      </c>
+      <c r="B73" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999971E+145</v>
+      </c>
+      <c r="C73" s="16">
+        <v>8</v>
+      </c>
+      <c r="D73" s="14">
+        <v>9028</v>
+      </c>
+      <c r="E73" s="17">
+        <v>4</v>
+      </c>
+      <c r="F73" s="14">
+        <v>9028</v>
+      </c>
+      <c r="G73" s="17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3353,15 +3401,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3390,15 +3438,15 @@
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8195C29-D11D-431E-9E30-8A4F7344BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FAD33-A2B0-4ABD-8D06-B788CB655FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="300" yWindow="2940" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B73" si="3">B57*100</f>
+        <f t="shared" ref="B58:B75" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2847,6 +2847,54 @@
       </c>
       <c r="G73" s="17">
         <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>72</v>
+      </c>
+      <c r="B74" s="19">
+        <f>B73*100</f>
+        <v>9.9999999999999977E+147</v>
+      </c>
+      <c r="C74" s="20">
+        <v>9</v>
+      </c>
+      <c r="D74" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E74" s="21">
+        <v>2</v>
+      </c>
+      <c r="F74" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G74" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
+        <v>73</v>
+      </c>
+      <c r="B75" s="19">
+        <f t="shared" si="3"/>
+        <v>9.999999999999998E+149</v>
+      </c>
+      <c r="C75" s="20">
+        <v>9</v>
+      </c>
+      <c r="D75" s="18">
+        <v>9038</v>
+      </c>
+      <c r="E75" s="21">
+        <v>2</v>
+      </c>
+      <c r="F75" s="18">
+        <v>9038</v>
+      </c>
+      <c r="G75" s="21">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FAD33-A2B0-4ABD-8D06-B788CB655FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB103CC-0191-431A-8C87-E4EBAE0879FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2940" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B75" si="3">B57*100</f>
+        <f t="shared" ref="B58:B77" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2894,6 +2894,54 @@
         <v>9038</v>
       </c>
       <c r="G75" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>74</v>
+      </c>
+      <c r="B76" s="19">
+        <f>B75*100</f>
+        <v>9.9999999999999981E+151</v>
+      </c>
+      <c r="C76" s="20">
+        <v>9</v>
+      </c>
+      <c r="D76" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E76" s="21">
+        <v>2</v>
+      </c>
+      <c r="F76" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G76" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>75</v>
+      </c>
+      <c r="B77" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999989E+153</v>
+      </c>
+      <c r="C77" s="20">
+        <v>9</v>
+      </c>
+      <c r="D77" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E77" s="21">
+        <v>2</v>
+      </c>
+      <c r="F77" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G77" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3412,15 +3460,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3449,15 +3497,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB103CC-0191-431A-8C87-E4EBAE0879FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B972B13-89FE-4688-93AF-196BF7DD164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B77" si="3">B57*100</f>
+        <f t="shared" ref="B58:B81" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2942,6 +2942,102 @@
         <v>9027</v>
       </c>
       <c r="G77" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>76</v>
+      </c>
+      <c r="B78" s="19">
+        <f>B77*100</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="C78" s="20">
+        <v>9</v>
+      </c>
+      <c r="D78" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E78" s="21">
+        <v>2</v>
+      </c>
+      <c r="F78" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>77</v>
+      </c>
+      <c r="B79" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="C79" s="20">
+        <v>9</v>
+      </c>
+      <c r="D79" s="18">
+        <v>9028</v>
+      </c>
+      <c r="E79" s="21">
+        <v>4</v>
+      </c>
+      <c r="F79" s="18">
+        <v>9028</v>
+      </c>
+      <c r="G79" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>78</v>
+      </c>
+      <c r="B80" s="19">
+        <f>B79*100</f>
+        <v>1E+160</v>
+      </c>
+      <c r="C80" s="20">
+        <v>9</v>
+      </c>
+      <c r="D80" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E80" s="21">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G80" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <v>79</v>
+      </c>
+      <c r="B81" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="C81" s="20">
+        <v>9</v>
+      </c>
+      <c r="D81" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E81" s="21">
+        <v>2</v>
+      </c>
+      <c r="F81" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G81" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3460,15 +3556,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3497,15 +3593,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3534,15 +3630,15 @@
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B972B13-89FE-4688-93AF-196BF7DD164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73ADEA4-182A-4BFB-A0D2-897F363215E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B81" si="3">B57*100</f>
+        <f t="shared" ref="B58:B85" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3038,6 +3038,102 @@
         <v>9027</v>
       </c>
       <c r="G81" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="14">
+        <v>80</v>
+      </c>
+      <c r="B82" s="15">
+        <f>B81*100</f>
+        <v>1E+164</v>
+      </c>
+      <c r="C82" s="16">
+        <v>10</v>
+      </c>
+      <c r="D82" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E82" s="17">
+        <v>2</v>
+      </c>
+      <c r="F82" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G82" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
+        <v>81</v>
+      </c>
+      <c r="B83" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="C83" s="16">
+        <v>10</v>
+      </c>
+      <c r="D83" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E83" s="17">
+        <v>2</v>
+      </c>
+      <c r="F83" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G83" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="14">
+        <v>82</v>
+      </c>
+      <c r="B84" s="15">
+        <f>B83*100</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C84" s="16">
+        <v>10</v>
+      </c>
+      <c r="D84" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E84" s="14">
+        <v>2</v>
+      </c>
+      <c r="F84" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G84" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="14">
+        <v>83</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C85" s="16">
+        <v>10</v>
+      </c>
+      <c r="D85" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E85" s="14">
+        <v>2</v>
+      </c>
+      <c r="F85" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G85" s="17">
         <v>6</v>
       </c>
     </row>
@@ -3052,7 +3148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3556,15 +3654,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3593,15 +3691,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73ADEA4-182A-4BFB-A0D2-897F363215E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD0098-2D79-4634-9955-145CC5EAA4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B85" si="3">B57*100</f>
+        <f t="shared" ref="B58:B89" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3134,6 +3134,102 @@
         <v>9027</v>
       </c>
       <c r="G85" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
+        <v>84</v>
+      </c>
+      <c r="B86" s="15">
+        <f>B85*100</f>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="C86" s="16">
+        <v>10</v>
+      </c>
+      <c r="D86" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E86" s="17">
+        <v>2</v>
+      </c>
+      <c r="F86" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G86" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="14">
+        <v>85</v>
+      </c>
+      <c r="B87" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="C87" s="16">
+        <v>10</v>
+      </c>
+      <c r="D87" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E87" s="17">
+        <v>2</v>
+      </c>
+      <c r="F87" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G87" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="14">
+        <v>86</v>
+      </c>
+      <c r="B88" s="15">
+        <f>B87*100</f>
+        <v>9.9999999999999987E+175</v>
+      </c>
+      <c r="C88" s="16">
+        <v>10</v>
+      </c>
+      <c r="D88" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E88" s="14">
+        <v>2</v>
+      </c>
+      <c r="F88" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G88" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="14">
+        <v>87</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+177</v>
+      </c>
+      <c r="C89" s="16">
+        <v>10</v>
+      </c>
+      <c r="D89" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E89" s="14">
+        <v>2</v>
+      </c>
+      <c r="F89" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G89" s="17">
         <v>6</v>
       </c>
     </row>
@@ -3654,15 +3750,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3691,15 +3787,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD0098-2D79-4634-9955-145CC5EAA4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369359F-9790-4CDB-94DD-DE3DEF251BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B89" si="3">B57*100</f>
+        <f t="shared" ref="B58:B93" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3230,6 +3230,102 @@
         <v>9027</v>
       </c>
       <c r="G89" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>88</v>
+      </c>
+      <c r="B90" s="19">
+        <f>B89*100</f>
+        <v>9.9999999999999989E+179</v>
+      </c>
+      <c r="C90" s="20">
+        <v>11</v>
+      </c>
+      <c r="D90" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E90" s="21">
+        <v>2</v>
+      </c>
+      <c r="F90" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G90" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="18">
+        <v>89</v>
+      </c>
+      <c r="B91" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+181</v>
+      </c>
+      <c r="C91" s="20">
+        <v>11</v>
+      </c>
+      <c r="D91" s="18">
+        <v>9038</v>
+      </c>
+      <c r="E91" s="21">
+        <v>2</v>
+      </c>
+      <c r="F91" s="18">
+        <v>9038</v>
+      </c>
+      <c r="G91" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>90</v>
+      </c>
+      <c r="B92" s="19">
+        <f>B91*100</f>
+        <v>9.9999999999999983E+183</v>
+      </c>
+      <c r="C92" s="20">
+        <v>11</v>
+      </c>
+      <c r="D92" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E92" s="21">
+        <v>2</v>
+      </c>
+      <c r="F92" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G92" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
+        <v>91</v>
+      </c>
+      <c r="B93" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999986E+185</v>
+      </c>
+      <c r="C93" s="20">
+        <v>11</v>
+      </c>
+      <c r="D93" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E93" s="21">
+        <v>2</v>
+      </c>
+      <c r="F93" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G93" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3750,15 +3846,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3787,15 +3883,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369359F-9790-4CDB-94DD-DE3DEF251BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D01380-95D6-4BE5-9DF3-CEA65F6971AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B93" si="3">B57*100</f>
+        <f t="shared" ref="B58:B97" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3326,6 +3326,102 @@
         <v>9027</v>
       </c>
       <c r="G93" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="19">
+        <f>B93*100</f>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="C94" s="20">
+        <v>11</v>
+      </c>
+      <c r="D94" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E94" s="21">
+        <v>2</v>
+      </c>
+      <c r="F94" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G94" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="C95" s="20">
+        <v>11</v>
+      </c>
+      <c r="D95" s="18">
+        <v>9028</v>
+      </c>
+      <c r="E95" s="21">
+        <v>4</v>
+      </c>
+      <c r="F95" s="18">
+        <v>9028</v>
+      </c>
+      <c r="G95" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="19">
+        <f>B95*100</f>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="C96" s="20">
+        <v>11</v>
+      </c>
+      <c r="D96" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E96" s="21">
+        <v>2</v>
+      </c>
+      <c r="F96" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G96" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>95</v>
+      </c>
+      <c r="B97" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999994E+193</v>
+      </c>
+      <c r="C97" s="20">
+        <v>11</v>
+      </c>
+      <c r="D97" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E97" s="21">
+        <v>2</v>
+      </c>
+      <c r="F97" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G97" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3846,15 +3942,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3883,15 +3979,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3920,15 +4016,15 @@
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D01380-95D6-4BE5-9DF3-CEA65F6971AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFED9B8-84B3-43D7-B416-C558E2017FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B97" si="3">B57*100</f>
+        <f t="shared" ref="B58:B99" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3422,6 +3422,54 @@
         <v>9027</v>
       </c>
       <c r="G97" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="14">
+        <v>96</v>
+      </c>
+      <c r="B98" s="15">
+        <f>B97*100</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C98" s="16">
+        <v>10</v>
+      </c>
+      <c r="D98" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E98" s="17">
+        <v>2</v>
+      </c>
+      <c r="F98" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G98" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
+        <v>97</v>
+      </c>
+      <c r="B99" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C99" s="16">
+        <v>10</v>
+      </c>
+      <c r="D99" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E99" s="17">
+        <v>2</v>
+      </c>
+      <c r="F99" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G99" s="17">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFED9B8-84B3-43D7-B416-C558E2017FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA2B40-0C8F-4F75-B857-020E31B09BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B99" si="3">B57*100</f>
+        <f t="shared" ref="B58:B101" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3434,7 +3434,7 @@
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="C98" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98" s="14">
         <v>9033</v>
@@ -3458,7 +3458,7 @@
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="C99" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" s="14">
         <v>9044</v>
@@ -3470,6 +3470,54 @@
         <v>9044</v>
       </c>
       <c r="G99" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
+        <v>98</v>
+      </c>
+      <c r="B100" s="15">
+        <f>B99*100</f>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C100" s="16">
+        <v>12</v>
+      </c>
+      <c r="D100" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E100" s="14">
+        <v>2</v>
+      </c>
+      <c r="F100" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G100" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="14">
+        <v>99</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C101" s="16">
+        <v>12</v>
+      </c>
+      <c r="D101" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E101" s="14">
+        <v>2</v>
+      </c>
+      <c r="F101" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G101" s="17">
         <v>6</v>
       </c>
     </row>
@@ -3990,15 +4038,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4027,15 +4075,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA2B40-0C8F-4F75-B857-020E31B09BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548FF5C-C17A-4AB6-92A2-CC19962B549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B101" si="3">B57*100</f>
+        <f t="shared" ref="B58:B105" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3518,6 +3518,102 @@
         <v>9027</v>
       </c>
       <c r="G101" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="14">
+        <v>100</v>
+      </c>
+      <c r="B102" s="15">
+        <f>B101*100</f>
+        <v>9.9999999999999985E+203</v>
+      </c>
+      <c r="C102" s="16">
+        <v>12</v>
+      </c>
+      <c r="D102" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E102" s="17">
+        <v>2</v>
+      </c>
+      <c r="F102" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G102" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="14">
+        <v>101</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999986E+205</v>
+      </c>
+      <c r="C103" s="16">
+        <v>12</v>
+      </c>
+      <c r="D103" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E103" s="17">
+        <v>2</v>
+      </c>
+      <c r="F103" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G103" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>102</v>
+      </c>
+      <c r="B104" s="15">
+        <f>B103*100</f>
+        <v>9.9999999999999987E+207</v>
+      </c>
+      <c r="C104" s="16">
+        <v>12</v>
+      </c>
+      <c r="D104" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E104" s="14">
+        <v>2</v>
+      </c>
+      <c r="F104" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G104" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
+        <v>103</v>
+      </c>
+      <c r="B105" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="C105" s="16">
+        <v>12</v>
+      </c>
+      <c r="D105" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E105" s="14">
+        <v>2</v>
+      </c>
+      <c r="F105" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G105" s="17">
         <v>6</v>
       </c>
     </row>
@@ -4038,15 +4134,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4075,15 +4171,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548FF5C-C17A-4AB6-92A2-CC19962B549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57613BB-A082-49B4-9BB2-85D717423476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -786,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -826,7 +826,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -932,7 +932,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1074,7 +1074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B105" si="3">B57*100</f>
+        <f t="shared" ref="B58:B109" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3614,6 +3614,102 @@
         <v>9027</v>
       </c>
       <c r="G105" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+      <c r="B106" s="19">
+        <f>B105*100</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="C106" s="20">
+        <v>13</v>
+      </c>
+      <c r="D106" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E106" s="21">
+        <v>2</v>
+      </c>
+      <c r="F106" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G106" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+      <c r="B107" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+213</v>
+      </c>
+      <c r="C107" s="20">
+        <v>13</v>
+      </c>
+      <c r="D107" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E107" s="21">
+        <v>2</v>
+      </c>
+      <c r="F107" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G107" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="18">
+        <v>106</v>
+      </c>
+      <c r="B108" s="19">
+        <f>B107*100</f>
+        <v>1E+216</v>
+      </c>
+      <c r="C108" s="20">
+        <v>13</v>
+      </c>
+      <c r="D108" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E108" s="21">
+        <v>2</v>
+      </c>
+      <c r="F108" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G108" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="18">
+        <v>107</v>
+      </c>
+      <c r="B109" s="19">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C109" s="20">
+        <v>13</v>
+      </c>
+      <c r="D109" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E109" s="21">
+        <v>2</v>
+      </c>
+      <c r="F109" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G109" s="21">
         <v>6</v>
       </c>
     </row>
@@ -4134,15 +4230,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4171,15 +4267,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57613BB-A082-49B4-9BB2-85D717423476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179846B8-078E-42C1-AF62-FFEDFA5ECCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="A108" sqref="A108:E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B109" si="3">B57*100</f>
+        <f t="shared" ref="B58:B113" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3710,6 +3710,102 @@
         <v>9027</v>
       </c>
       <c r="G109" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="18">
+        <v>108</v>
+      </c>
+      <c r="B110" s="19">
+        <f>B109*100</f>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C110" s="20">
+        <v>13</v>
+      </c>
+      <c r="D110" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E110" s="21">
+        <v>2</v>
+      </c>
+      <c r="F110" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G110" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="18">
+        <v>109</v>
+      </c>
+      <c r="B111" s="19">
+        <f t="shared" si="3"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C111" s="20">
+        <v>13</v>
+      </c>
+      <c r="D111" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E111" s="21">
+        <v>2</v>
+      </c>
+      <c r="F111" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G111" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
+        <v>110</v>
+      </c>
+      <c r="B112" s="19">
+        <f>B111*100</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C112" s="20">
+        <v>13</v>
+      </c>
+      <c r="D112" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E112" s="21">
+        <v>2</v>
+      </c>
+      <c r="F112" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G112" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="18">
+        <v>111</v>
+      </c>
+      <c r="B113" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C113" s="20">
+        <v>13</v>
+      </c>
+      <c r="D113" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E113" s="21">
+        <v>2</v>
+      </c>
+      <c r="F113" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G113" s="21">
         <v>6</v>
       </c>
     </row>
@@ -4230,15 +4326,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4267,15 +4363,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179846B8-078E-42C1-AF62-FFEDFA5ECCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A2F58-F505-42CA-B370-51317D9D2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:E112"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B113" si="3">B57*100</f>
+        <f t="shared" ref="B58:B115" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3806,6 +3806,54 @@
         <v>9027</v>
       </c>
       <c r="G113" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
+        <v>112</v>
+      </c>
+      <c r="B114" s="15">
+        <f>B113*100</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C114" s="16">
+        <v>12</v>
+      </c>
+      <c r="D114" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E114" s="17">
+        <v>2</v>
+      </c>
+      <c r="F114" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G114" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="14">
+        <v>113</v>
+      </c>
+      <c r="B115" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C115" s="16">
+        <v>12</v>
+      </c>
+      <c r="D115" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E115" s="17">
+        <v>2</v>
+      </c>
+      <c r="F115" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G115" s="17">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A2F58-F505-42CA-B370-51317D9D2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34F970-3310-43E4-AEA5-197DD4F1A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B115" si="3">B57*100</f>
+        <f t="shared" ref="B58:B119" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3814,8 +3814,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="15">
-        <f>B113*100</f>
-        <v>9.9999999999999992E+227</v>
+        <v>9.9999999999999993E+209</v>
       </c>
       <c r="C114" s="16">
         <v>12</v>
@@ -3838,22 +3837,116 @@
         <v>113</v>
       </c>
       <c r="B115" s="15">
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="C115" s="16">
+        <v>12</v>
+      </c>
+      <c r="D115" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E115" s="17">
+        <v>2</v>
+      </c>
+      <c r="F115" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G115" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="14">
+        <v>114</v>
+      </c>
+      <c r="B116" s="15">
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C116" s="16">
+        <v>14</v>
+      </c>
+      <c r="D116" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E116" s="14">
+        <v>2</v>
+      </c>
+      <c r="F116" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G116" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="14">
+        <v>115</v>
+      </c>
+      <c r="B117" s="15">
         <f t="shared" si="3"/>
         <v>9.9999999999999988E+229</v>
       </c>
-      <c r="C115" s="16">
-        <v>12</v>
-      </c>
-      <c r="D115" s="14">
+      <c r="C117" s="16">
+        <v>14</v>
+      </c>
+      <c r="D117" s="14">
         <v>9044</v>
       </c>
-      <c r="E115" s="17">
-        <v>2</v>
-      </c>
-      <c r="F115" s="14">
+      <c r="E117" s="14">
+        <v>2</v>
+      </c>
+      <c r="F117" s="14">
         <v>9044</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G117" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="14">
+        <v>116</v>
+      </c>
+      <c r="B118" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C118" s="16">
+        <v>14</v>
+      </c>
+      <c r="D118" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E118" s="14">
+        <v>2</v>
+      </c>
+      <c r="F118" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G118" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="14">
+        <v>117</v>
+      </c>
+      <c r="B119" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999984E+233</v>
+      </c>
+      <c r="C119" s="16">
+        <v>14</v>
+      </c>
+      <c r="D119" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E119" s="14">
+        <v>2</v>
+      </c>
+      <c r="F119" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G119" s="17">
         <v>6</v>
       </c>
     </row>
@@ -4374,15 +4467,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4411,15 +4504,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34F970-3310-43E4-AEA5-197DD4F1A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58004F90-3804-4B6D-8D31-F74CA728EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B119" si="3">B57*100</f>
+        <f t="shared" ref="B58:B121" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3947,6 +3947,54 @@
         <v>9027</v>
       </c>
       <c r="G119" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="14">
+        <v>118</v>
+      </c>
+      <c r="B120" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999983E+235</v>
+      </c>
+      <c r="C120" s="16">
+        <v>14</v>
+      </c>
+      <c r="D120" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E120" s="14">
+        <v>2</v>
+      </c>
+      <c r="F120" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G120" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="14">
+        <v>119</v>
+      </c>
+      <c r="B121" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999976E+237</v>
+      </c>
+      <c r="C121" s="16">
+        <v>14</v>
+      </c>
+      <c r="D121" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E121" s="14">
+        <v>2</v>
+      </c>
+      <c r="F121" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G121" s="17">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58004F90-3804-4B6D-8D31-F74CA728EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279672D7-8A23-4543-839E-DC0067FBFFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B121" si="3">B57*100</f>
+        <f t="shared" ref="B58:B122" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -3995,6 +3995,54 @@
         <v>9044</v>
       </c>
       <c r="G121" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
+        <v>120</v>
+      </c>
+      <c r="B122" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999983E+239</v>
+      </c>
+      <c r="C122" s="16">
+        <v>14</v>
+      </c>
+      <c r="D122" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E122" s="14">
+        <v>2</v>
+      </c>
+      <c r="F122" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G122" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="14">
+        <v>121</v>
+      </c>
+      <c r="B123" s="15">
+        <f t="shared" ref="B123" si="4">B122*100</f>
+        <v>9.9999999999999981E+241</v>
+      </c>
+      <c r="C123" s="16">
+        <v>14</v>
+      </c>
+      <c r="D123" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E123" s="14">
+        <v>2</v>
+      </c>
+      <c r="F123" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G123" s="17">
         <v>6</v>
       </c>
     </row>
@@ -4515,15 +4563,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4552,15 +4600,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279672D7-8A23-4543-839E-DC0067FBFFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC566FA5-B6C2-4A34-B84B-1428E7BEF003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4043,6 +4043,54 @@
         <v>9027</v>
       </c>
       <c r="G123" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="18">
+        <v>122</v>
+      </c>
+      <c r="B124" s="19">
+        <f>B123*100</f>
+        <v>9.9999999999999977E+243</v>
+      </c>
+      <c r="C124" s="20">
+        <v>15</v>
+      </c>
+      <c r="D124" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E124" s="21">
+        <v>2</v>
+      </c>
+      <c r="F124" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G124" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="18">
+        <v>123</v>
+      </c>
+      <c r="B125" s="19">
+        <f t="shared" ref="B125" si="5">B124*100</f>
+        <v>9.9999999999999968E+245</v>
+      </c>
+      <c r="C125" s="20">
+        <v>15</v>
+      </c>
+      <c r="D125" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E125" s="21">
+        <v>2</v>
+      </c>
+      <c r="F125" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G125" s="21">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC566FA5-B6C2-4A34-B84B-1428E7BEF003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE39BFA-D048-4A49-93F5-E743C9119C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4075,7 +4075,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="5">B124*100</f>
+        <f t="shared" ref="B125:B127" si="5">B124*100</f>
         <v>9.9999999999999968E+245</v>
       </c>
       <c r="C125" s="20">
@@ -4091,6 +4091,54 @@
         <v>9044</v>
       </c>
       <c r="G125" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="18">
+        <v>124</v>
+      </c>
+      <c r="B126" s="19">
+        <f>B125*100</f>
+        <v>9.9999999999999967E+247</v>
+      </c>
+      <c r="C126" s="20">
+        <v>15</v>
+      </c>
+      <c r="D126" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E126" s="21">
+        <v>2</v>
+      </c>
+      <c r="F126" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G126" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="18">
+        <v>125</v>
+      </c>
+      <c r="B127" s="19">
+        <f t="shared" si="5"/>
+        <v>9.999999999999996E+249</v>
+      </c>
+      <c r="C127" s="20">
+        <v>15</v>
+      </c>
+      <c r="D127" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E127" s="21">
+        <v>2</v>
+      </c>
+      <c r="F127" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G127" s="21">
         <v>6</v>
       </c>
     </row>
@@ -4611,15 +4659,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4648,15 +4696,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE39BFA-D048-4A49-93F5-E743C9119C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802929E5-BDEF-401C-A606-BE44C03E4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4075,7 +4075,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="19">
-        <f t="shared" ref="B125:B127" si="5">B124*100</f>
+        <f t="shared" ref="B125:B129" si="5">B124*100</f>
         <v>9.9999999999999968E+245</v>
       </c>
       <c r="C125" s="20">
@@ -4139,6 +4139,54 @@
         <v>9027</v>
       </c>
       <c r="G127" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="18">
+        <v>126</v>
+      </c>
+      <c r="B128" s="19">
+        <f>B127*100</f>
+        <v>9.9999999999999969E+251</v>
+      </c>
+      <c r="C128" s="20">
+        <v>15</v>
+      </c>
+      <c r="D128" s="18">
+        <v>9033</v>
+      </c>
+      <c r="E128" s="21">
+        <v>2</v>
+      </c>
+      <c r="F128" s="18">
+        <v>9033</v>
+      </c>
+      <c r="G128" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="18">
+        <v>127</v>
+      </c>
+      <c r="B129" s="19">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999968E+253</v>
+      </c>
+      <c r="C129" s="20">
+        <v>15</v>
+      </c>
+      <c r="D129" s="18">
+        <v>9044</v>
+      </c>
+      <c r="E129" s="21">
+        <v>2</v>
+      </c>
+      <c r="F129" s="18">
+        <v>9044</v>
+      </c>
+      <c r="G129" s="21">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802929E5-BDEF-401C-A606-BE44C03E4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D95843A-0A9C-47F5-A16D-D715A36A6837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4075,7 +4075,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="19">
-        <f t="shared" ref="B125:B129" si="5">B124*100</f>
+        <f t="shared" ref="B125:B130" si="5">B124*100</f>
         <v>9.9999999999999968E+245</v>
       </c>
       <c r="C125" s="20">
@@ -4187,6 +4187,149 @@
         <v>9044</v>
       </c>
       <c r="G129" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="18">
+        <v>128</v>
+      </c>
+      <c r="B130" s="19">
+        <f t="shared" si="5"/>
+        <v>9.999999999999997E+255</v>
+      </c>
+      <c r="C130" s="20">
+        <v>15</v>
+      </c>
+      <c r="D130" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E130" s="21">
+        <v>2</v>
+      </c>
+      <c r="F130" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G130" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>129</v>
+      </c>
+      <c r="B131" s="19">
+        <f>B130*100</f>
+        <v>9.9999999999999963E+257</v>
+      </c>
+      <c r="C131" s="20">
+        <v>15</v>
+      </c>
+      <c r="D131" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E131" s="21">
+        <v>2</v>
+      </c>
+      <c r="F131" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G131" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="14">
+        <v>130</v>
+      </c>
+      <c r="B132" s="15">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="C132" s="16">
+        <v>16</v>
+      </c>
+      <c r="D132" s="14">
+        <v>9033</v>
+      </c>
+      <c r="E132" s="14">
+        <v>2</v>
+      </c>
+      <c r="F132" s="14">
+        <v>9033</v>
+      </c>
+      <c r="G132" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="14">
+        <v>131</v>
+      </c>
+      <c r="B133" s="15">
+        <f>B132*100</f>
+        <v>1E+262</v>
+      </c>
+      <c r="C133" s="16">
+        <v>16</v>
+      </c>
+      <c r="D133" s="14">
+        <v>9044</v>
+      </c>
+      <c r="E133" s="14">
+        <v>2</v>
+      </c>
+      <c r="F133" s="14">
+        <v>9044</v>
+      </c>
+      <c r="G133" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="14">
+        <v>132</v>
+      </c>
+      <c r="B134" s="15">
+        <f t="shared" ref="B134:B135" si="6">B133*100</f>
+        <v>1E+264</v>
+      </c>
+      <c r="C134" s="16">
+        <v>16</v>
+      </c>
+      <c r="D134" s="14">
+        <v>9017</v>
+      </c>
+      <c r="E134" s="14">
+        <v>2</v>
+      </c>
+      <c r="F134" s="14">
+        <v>9017</v>
+      </c>
+      <c r="G134" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="14">
+        <v>133</v>
+      </c>
+      <c r="B135" s="15">
+        <f t="shared" si="6"/>
+        <v>1E+266</v>
+      </c>
+      <c r="C135" s="16">
+        <v>16</v>
+      </c>
+      <c r="D135" s="14">
+        <v>9027</v>
+      </c>
+      <c r="E135" s="14">
+        <v>2</v>
+      </c>
+      <c r="F135" s="14">
+        <v>9027</v>
+      </c>
+      <c r="G135" s="17">
         <v>6</v>
       </c>
     </row>
@@ -4707,15 +4850,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -4744,15 +4887,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
